--- a/Algorithm.xlsx
+++ b/Algorithm.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto Fapespa Resque\artigo_marcador\marcadores\Analise_qualitativa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E343F04-83DD-4667-9CAB-07DFE9EDC8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A9624725B4024240097A6A3430472DE741493F89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D136B51D-39AB-4371-8879-A4CEACBD298F}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Algorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="633">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -45,9 +32,6 @@
   </si>
   <si>
     <t>Flow of the detection algorithm</t>
-  </si>
-  <si>
-    <t>Evidência</t>
   </si>
   <si>
     <t>Benedito</t>
@@ -2026,6 +2010,13 @@
   </si>
   <si>
     <t>The thresholded images are postprocessed using a 3×3 median filter</t>
+  </si>
+  <si>
+    <t>In the next paragraph, we show that the total number card(V (R2)) of received votes by R2, i.e., in the region candidate to support an inner arc E2, must satisfy, for some
+threshold  &gt; 0,</t>
+  </si>
+  <si>
+    <t>Evidence</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2026,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2052,6 +2043,14 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2216,10 +2215,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2228,13 +2227,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2243,13 +2242,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2260,7 +2259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2299,6 +2298,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2350,13 +2352,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:E394">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:E395">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coder"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Identification"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Flow of the detection algorithm"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Evidência"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Evidence"/>
   </tableColumns>
   <tableStyleInfo name="Respostas ao formulário 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2563,11 +2565,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E394"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2592,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2600,16 +2602,16 @@
         <v>45581.658987291667</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2617,16 +2619,16 @@
         <v>45581.664816157412</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2634,16 +2636,16 @@
         <v>45581.710038761579</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2651,16 +2653,16 @@
         <v>45581.71357197917</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2668,16 +2670,16 @@
         <v>45581.739847430552</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2685,16 +2687,16 @@
         <v>45581.748304062501</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2702,16 +2704,16 @@
         <v>45581.80195439815</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2719,16 +2721,16 @@
         <v>45581.810711400467</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2736,16 +2738,16 @@
         <v>45581.815951770834</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2753,16 +2755,16 @@
         <v>45581.818621319442</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2770,16 +2772,16 @@
         <v>45581.825685694443</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2787,16 +2789,16 @@
         <v>45581.833078252312</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2804,16 +2806,16 @@
         <v>45582.616568993057</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2821,16 +2823,16 @@
         <v>45582.62028643518</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2838,16 +2840,16 @@
         <v>45582.623130162036</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2855,16 +2857,16 @@
         <v>45582.634878888886</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2872,16 +2874,16 @@
         <v>45582.63622753472</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2889,16 +2891,16 @@
         <v>45582.637118125</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2906,16 +2908,16 @@
         <v>45582.646528750003</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2923,16 +2925,16 @@
         <v>45582.654512546302</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2940,16 +2942,16 @@
         <v>45582.655497291664</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2957,16 +2959,16 @@
         <v>45582.682212500004</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2974,16 +2976,16 @@
         <v>45582.694779756945</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2991,16 +2993,16 @@
         <v>45582.701335798614</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3008,16 +3010,16 @@
         <v>45582.704350127315</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3025,16 +3027,16 @@
         <v>45582.705119537037</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3042,16 +3044,16 @@
         <v>45582.708135462963</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3059,16 +3061,16 @@
         <v>45582.710238715277</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3076,16 +3078,16 @@
         <v>45582.711289884261</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3093,16 +3095,16 @@
         <v>45582.720088391201</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3110,16 +3112,16 @@
         <v>45582.723568877314</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3127,16 +3129,16 @@
         <v>45582.784696006944</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3144,16 +3146,16 @@
         <v>45582.788535092594</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3161,16 +3163,16 @@
         <v>45582.792500324074</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3178,16 +3180,16 @@
         <v>45582.794141203703</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3195,16 +3197,16 @@
         <v>45582.804141840279</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3212,16 +3214,16 @@
         <v>45582.804588553241</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3229,16 +3231,16 @@
         <v>45582.805749178238</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3246,16 +3248,16 @@
         <v>45582.814355902781</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3263,16 +3265,16 @@
         <v>45582.815830752312</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3280,16 +3282,16 @@
         <v>45582.818789699071</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3297,16 +3299,16 @@
         <v>45582.82432561343</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3314,16 +3316,16 @@
         <v>45582.831562499996</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3331,16 +3333,16 @@
         <v>45582.844449328702</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3348,16 +3350,16 @@
         <v>45582.85088194444</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3365,16 +3367,16 @@
         <v>45582.851514236114</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3382,16 +3384,16 @@
         <v>45582.857179560189</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3399,16 +3401,16 @@
         <v>45582.865737465283</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3416,16 +3418,16 @@
         <v>45582.867201967594</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3433,16 +3435,16 @@
         <v>45582.872355717591</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3450,16 +3452,16 @@
         <v>45582.899068252314</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3467,16 +3469,16 @@
         <v>45582.900822627314</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3484,16 +3486,16 @@
         <v>45582.905037743054</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3501,16 +3503,16 @@
         <v>45583.348048495369</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3518,16 +3520,16 @@
         <v>45583.349328819444</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3535,16 +3537,16 @@
         <v>45583.351615914347</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3552,16 +3554,16 @@
         <v>45583.352617407407</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3569,16 +3571,16 @@
         <v>45583.353820289354</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3586,16 +3588,16 @@
         <v>45583.355585578705</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3603,16 +3605,16 @@
         <v>45583.360739050928</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3620,16 +3622,16 @@
         <v>45583.366822476848</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3637,16 +3639,16 @@
         <v>45583.374980590277</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3654,16 +3656,16 @@
         <v>45583.614478715273</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3671,16 +3673,16 @@
         <v>45583.616372766206</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3688,16 +3690,16 @@
         <v>45583.618628067125</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3705,16 +3707,16 @@
         <v>45583.627432962967</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3722,16 +3724,16 @@
         <v>45583.627844525465</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3739,16 +3741,16 @@
         <v>45583.628851840273</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D69" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3756,16 +3758,16 @@
         <v>45583.629965358792</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3773,16 +3775,16 @@
         <v>45583.642423981481</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3790,16 +3792,16 @@
         <v>45583.643962048613</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3807,16 +3809,16 @@
         <v>45583.651597025462</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3824,16 +3826,16 @@
         <v>45583.653214768521</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3841,16 +3843,16 @@
         <v>45583.660130312499</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3858,16 +3860,16 @@
         <v>45583.663451585649</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3875,16 +3877,16 @@
         <v>45583.697759571762</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3892,16 +3894,16 @@
         <v>45583.7271921875</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3909,16 +3911,16 @@
         <v>45583.740988668986</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3926,16 +3928,16 @@
         <v>45583.744333391209</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3943,16 +3945,16 @@
         <v>45583.745416550926</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3960,16 +3962,16 @@
         <v>45583.747950023149</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3977,16 +3979,16 @@
         <v>45583.755981030088</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3994,16 +3996,16 @@
         <v>45583.759472569443</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4011,16 +4013,16 @@
         <v>45583.763274942132</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4028,16 +4030,16 @@
         <v>45583.765778993053</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4045,16 +4047,16 @@
         <v>45583.772675567132</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4062,16 +4064,16 @@
         <v>45583.776053437497</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4079,16 +4081,16 @@
         <v>45583.777733576389</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4096,16 +4098,16 @@
         <v>45583.778997407411</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4113,16 +4115,16 @@
         <v>45586.695136770832</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4130,16 +4132,16 @@
         <v>45586.69728310185</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4147,16 +4149,16 @@
         <v>45586.71355335648</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4164,16 +4166,16 @@
         <v>45586.72142987269</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4181,16 +4183,16 @@
         <v>45586.724970439813</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4198,16 +4200,16 @@
         <v>45586.752435995368</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4215,16 +4217,16 @@
         <v>45586.753924201388</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4232,16 +4234,16 @@
         <v>45586.756633969911</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4249,16 +4251,16 @@
         <v>45586.758569722224</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4266,16 +4268,16 @@
         <v>45587.337937395831</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4283,16 +4285,16 @@
         <v>45587.338847893523</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4300,16 +4302,16 @@
         <v>45587.341363726853</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4317,16 +4319,16 @@
         <v>45587.34223440972</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4334,16 +4336,16 @@
         <v>45587.343213414351</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4351,16 +4353,16 @@
         <v>45587.345075833335</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4368,16 +4370,16 @@
         <v>45587.346883310187</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E106" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4385,16 +4387,16 @@
         <v>45587.350853518517</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4402,16 +4404,16 @@
         <v>45587.351365509254</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4419,16 +4421,16 @@
         <v>45587.35235818287</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4436,16 +4438,16 @@
         <v>45587.357425509261</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4453,16 +4455,16 @@
         <v>45587.359489722221</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4470,16 +4472,16 @@
         <v>45587.364407256944</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D112" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4487,16 +4489,16 @@
         <v>45587.370711759257</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4504,16 +4506,16 @@
         <v>45587.372659143519</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4521,16 +4523,16 @@
         <v>45587.377439409727</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D115" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4538,16 +4540,16 @@
         <v>45587.378014849535</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D116" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4555,16 +4557,16 @@
         <v>45587.380640150463</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4572,16 +4574,16 @@
         <v>45587.385160057871</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4589,16 +4591,16 @@
         <v>45587.386964351856</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4606,16 +4608,16 @@
         <v>45587.389020208335</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D120" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4623,16 +4625,16 @@
         <v>45587.391053692132</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4640,16 +4642,16 @@
         <v>45587.392170092593</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4657,16 +4659,16 @@
         <v>45587.393221261576</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4674,16 +4676,16 @@
         <v>45587.393960150468</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4691,16 +4693,16 @@
         <v>45587.394574756945</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4708,16 +4710,16 @@
         <v>45587.398279340283</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D126" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4725,16 +4727,16 @@
         <v>45587.404269282408</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4742,16 +4744,16 @@
         <v>45587.405368599539</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4759,16 +4761,16 @@
         <v>45587.407607199071</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4776,16 +4778,16 @@
         <v>45587.409347256944</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4793,16 +4795,16 @@
         <v>45587.411652719908</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D131" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="E131" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4810,16 +4812,16 @@
         <v>45587.412718472224</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4827,16 +4829,16 @@
         <v>45587.415280810186</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4844,16 +4846,16 @@
         <v>45587.416237465281</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4861,16 +4863,16 @@
         <v>45587.424776284723</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4878,16 +4880,16 @@
         <v>45587.429219641199</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4895,16 +4897,16 @@
         <v>45587.433038472227</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4912,16 +4914,16 @@
         <v>45587.438302106486</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4929,16 +4931,16 @@
         <v>45587.43898770833</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4946,16 +4948,16 @@
         <v>45587.457477916665</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D140" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4963,16 +4965,16 @@
         <v>45587.458835937505</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4980,16 +4982,16 @@
         <v>45587.462434386573</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="E142" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4997,16 +4999,16 @@
         <v>45587.465358541667</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5014,16 +5016,16 @@
         <v>45587.466453159723</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5031,16 +5033,16 @@
         <v>45587.467487245369</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5048,16 +5050,16 @@
         <v>45587.468740787037</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5065,16 +5067,16 @@
         <v>45587.473104606484</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5082,16 +5084,16 @@
         <v>45587.475022858795</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5099,16 +5101,16 @@
         <v>45587.475572476847</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5116,16 +5118,16 @@
         <v>45587.61889474537</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D150" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5133,16 +5135,16 @@
         <v>45587.624961527777</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="9" t="s">
         <v>263</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5150,16 +5152,16 @@
         <v>45587.669173576389</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5167,16 +5169,16 @@
         <v>45587.674908807865</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5184,16 +5186,16 @@
         <v>45587.677791203707</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5201,16 +5203,16 @@
         <v>45587.679483530097</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D155" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E155" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5218,16 +5220,16 @@
         <v>45587.680522314811</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D156" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5235,16 +5237,16 @@
         <v>45587.683068298611</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5252,16 +5254,16 @@
         <v>45587.690757824079</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="E158" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5269,16 +5271,16 @@
         <v>45587.691282766202</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5286,16 +5288,16 @@
         <v>45587.692311909719</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D160" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E160" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5303,16 +5305,16 @@
         <v>45587.695568009258</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5320,16 +5322,16 @@
         <v>45587.699055115736</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D162" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5337,16 +5339,16 @@
         <v>45587.716875405094</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E163" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5354,16 +5356,16 @@
         <v>45587.720528506943</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D164" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E164" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5371,16 +5373,16 @@
         <v>45587.73408923611</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5388,16 +5390,16 @@
         <v>45587.735800925926</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5405,16 +5407,16 @@
         <v>45587.757356574075</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5422,16 +5424,16 @@
         <v>45587.758657164348</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5439,16 +5441,16 @@
         <v>45587.759950543987</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5456,16 +5458,16 @@
         <v>45587.76641005787</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C170" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5473,16 +5475,16 @@
         <v>45588.377416053241</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D171" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E171" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5490,16 +5492,16 @@
         <v>45588.378584027778</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5507,16 +5509,16 @@
         <v>45588.379321365741</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5524,16 +5526,16 @@
         <v>45588.381523993055</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5541,16 +5543,16 @@
         <v>45588.382518877319</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5558,16 +5560,16 @@
         <v>45588.385285127311</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5575,16 +5577,16 @@
         <v>45588.385906643518</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5592,16 +5594,16 @@
         <v>45588.387170057875</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5609,16 +5611,16 @@
         <v>45588.387867696758</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5626,16 +5628,16 @@
         <v>45588.38948824074</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5643,16 +5645,16 @@
         <v>45588.390324513894</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5660,16 +5662,16 @@
         <v>45588.392184525466</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5677,16 +5679,16 @@
         <v>45588.392625706023</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5694,16 +5696,16 @@
         <v>45588.396290613426</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D184" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E184" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5711,16 +5713,16 @@
         <v>45588.401238634258</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D185" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E185" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5728,16 +5730,16 @@
         <v>45588.402113495365</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5745,16 +5747,16 @@
         <v>45588.402741076388</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D187" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E187" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5762,16 +5764,16 @@
         <v>45588.404248958337</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5779,16 +5781,16 @@
         <v>45588.40553178241</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5796,16 +5798,16 @@
         <v>45588.4099894213</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5813,16 +5815,16 @@
         <v>45588.410734988429</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5830,16 +5832,16 @@
         <v>45588.420904826387</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5847,16 +5849,16 @@
         <v>45588.424999629628</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="E193" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5864,16 +5866,16 @@
         <v>45588.425438611113</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5881,16 +5883,16 @@
         <v>45588.427151446755</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5898,16 +5900,16 @@
         <v>45588.430434490743</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D196" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5915,16 +5917,16 @@
         <v>45588.445909780094</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E197" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5932,16 +5934,16 @@
         <v>45588.448704965282</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D198" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5949,16 +5951,16 @@
         <v>45588.450864560189</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D199" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E199" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5966,16 +5968,16 @@
         <v>45588.579943553239</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="E200" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5983,16 +5985,16 @@
         <v>45588.580951921293</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6000,16 +6002,16 @@
         <v>45588.58254043982</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6017,16 +6019,16 @@
         <v>45588.584051307873</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D203" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E203" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6034,16 +6036,16 @@
         <v>45588.585935844909</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D204" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6051,16 +6053,16 @@
         <v>45588.588050335646</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6068,16 +6070,16 @@
         <v>45588.589706886574</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6085,16 +6087,16 @@
         <v>45588.591084965279</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6102,16 +6104,16 @@
         <v>45588.591555879626</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6119,16 +6121,16 @@
         <v>45588.599161678241</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6136,16 +6138,16 @@
         <v>45588.604513865735</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C210" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="E210" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6153,16 +6155,16 @@
         <v>45588.607736319449</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6170,16 +6172,16 @@
         <v>45588.614274976848</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C212" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6187,16 +6189,16 @@
         <v>45588.615331875</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6204,16 +6206,16 @@
         <v>45588.616691354167</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6221,16 +6223,16 @@
         <v>45588.623666828702</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6238,16 +6240,16 @@
         <v>45588.625499999995</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D216" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6255,16 +6257,16 @@
         <v>45588.627823784722</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D217" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="E217" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6272,16 +6274,16 @@
         <v>45588.633213611116</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D218" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E218" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6289,16 +6291,16 @@
         <v>45588.641123680558</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E219" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E219" s="9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6306,16 +6308,16 @@
         <v>45588.641995185186</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6323,16 +6325,16 @@
         <v>45588.643806921296</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6340,16 +6342,16 @@
         <v>45588.646306562499</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D222" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6357,16 +6359,16 @@
         <v>45588.657730069448</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D223" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D223" s="8" t="s">
-        <v>374</v>
-      </c>
       <c r="E223" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6374,16 +6376,16 @@
         <v>45588.66052513889</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6391,16 +6393,16 @@
         <v>45588.661093437498</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6408,16 +6410,16 @@
         <v>45588.661997569448</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6425,16 +6427,16 @@
         <v>45588.663177638889</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6442,16 +6444,16 @@
         <v>45588.663697731477</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6459,16 +6461,16 @@
         <v>45588.666369166662</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6476,16 +6478,16 @@
         <v>45588.667824930555</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6493,16 +6495,16 @@
         <v>45588.681985347226</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6510,16 +6512,16 @@
         <v>45588.682597060186</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D232" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E232" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6527,16 +6529,16 @@
         <v>45588.683445856484</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6544,16 +6546,16 @@
         <v>45588.689526018519</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C234" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E234" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6561,16 +6563,16 @@
         <v>45588.690126307869</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6578,16 +6580,16 @@
         <v>45588.690459756945</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6595,16 +6597,16 @@
         <v>45588.691640856487</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6612,16 +6614,16 @@
         <v>45588.692147083333</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6629,16 +6631,16 @@
         <v>45588.695603263885</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C239" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E239" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6646,16 +6648,16 @@
         <v>45588.695909166665</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6663,16 +6665,16 @@
         <v>45588.697404236111</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6680,16 +6682,16 @@
         <v>45588.698940324073</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6697,16 +6699,16 @@
         <v>45588.700804745371</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6714,16 +6716,16 @@
         <v>45588.701854884261</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D244" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E244" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6731,16 +6733,16 @@
         <v>45588.702893483802</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6748,16 +6750,16 @@
         <v>45588.704800902779</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6765,16 +6767,16 @@
         <v>45588.705866111108</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6782,16 +6784,16 @@
         <v>45588.707450717593</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6799,16 +6801,16 @@
         <v>45588.843930150462</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D249" s="8" t="s">
+      <c r="E249" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="E249" s="9" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6816,16 +6818,16 @@
         <v>45588.845065474539</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6833,16 +6835,16 @@
         <v>45588.846026678242</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6850,16 +6852,16 @@
         <v>45588.847558460649</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6867,16 +6869,16 @@
         <v>45588.849638564818</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D253" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E253" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="E253" s="9" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6884,16 +6886,16 @@
         <v>45588.850718425922</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6901,16 +6903,16 @@
         <v>45588.855399826389</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D255" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E255" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="E255" s="9" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6918,16 +6920,16 @@
         <v>45588.857500821759</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E256" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6935,16 +6937,16 @@
         <v>45588.858420231481</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6952,16 +6954,16 @@
         <v>45588.860968923611</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D258" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6969,16 +6971,16 @@
         <v>45588.863757453699</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D259" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E259" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="E259" s="9" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6986,16 +6988,16 @@
         <v>45588.865628657411</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7003,16 +7005,16 @@
         <v>45588.866518958333</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D261" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E261" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="E261" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7020,16 +7022,16 @@
         <v>45588.869137615737</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C262" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="E262" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7037,16 +7039,16 @@
         <v>45588.870180625003</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E263" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7054,16 +7056,16 @@
         <v>45588.873153171298</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D264" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E264" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7071,16 +7073,16 @@
         <v>45588.87454178241</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E265" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7088,16 +7090,16 @@
         <v>45588.878361053241</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C266" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E266" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="D266" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7105,16 +7107,16 @@
         <v>45588.879185289348</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7122,16 +7124,16 @@
         <v>45588.879942766202</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7139,16 +7141,16 @@
         <v>45589.349049583332</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7156,16 +7158,16 @@
         <v>45589.353357048611</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C270" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E270" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="D270" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7173,16 +7175,16 @@
         <v>45589.354095289353</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7190,16 +7192,16 @@
         <v>45589.355206585649</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7207,16 +7209,16 @@
         <v>45589.355838171294</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7224,16 +7226,16 @@
         <v>45589.356318009261</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7241,16 +7243,16 @@
         <v>45589.356930879629</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7258,16 +7260,16 @@
         <v>45589.360807476856</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7275,16 +7277,16 @@
         <v>45589.36411012731</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C277" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E277" s="9" t="s">
         <v>447</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E277" s="9" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7292,16 +7294,16 @@
         <v>45589.364593020829</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7309,16 +7311,16 @@
         <v>45589.365325243052</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7326,16 +7328,16 @@
         <v>45589.36622653935</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D280" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E280" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7343,16 +7345,16 @@
         <v>45589.36682541667</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E281" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7360,16 +7362,16 @@
         <v>45589.368679907406</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D282" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E282" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="E282" s="6" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7377,16 +7379,16 @@
         <v>45589.369962384255</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7394,16 +7396,16 @@
         <v>45589.371926608801</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D284" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E284" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7411,16 +7413,16 @@
         <v>45589.372558425923</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7428,16 +7430,16 @@
         <v>45589.376989583332</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E286" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E286" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7445,16 +7447,16 @@
         <v>45589.386846249996</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D287" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E287" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="E287" s="9" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7462,16 +7464,16 @@
         <v>45589.388446539349</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7479,16 +7481,16 @@
         <v>45589.389401747685</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7496,16 +7498,16 @@
         <v>45589.390162604162</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7513,16 +7515,16 @@
         <v>45589.391543090278</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D291" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E291" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="E291" s="9" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7530,16 +7532,16 @@
         <v>45589.393806666667</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7547,16 +7549,16 @@
         <v>45589.395265474537</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C293" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D293" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D293" s="8" t="s">
+      <c r="E293" s="9" t="s">
         <v>471</v>
-      </c>
-      <c r="E293" s="9" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7564,16 +7566,16 @@
         <v>45589.39680829861</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D294" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E294" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7581,16 +7583,16 @@
         <v>45589.400161724538</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D295" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E295" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="E295" s="9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7598,16 +7600,16 @@
         <v>45589.400720532409</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7615,16 +7617,16 @@
         <v>45589.401184768518</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E297" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7632,16 +7634,16 @@
         <v>45589.40233600694</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7649,16 +7651,16 @@
         <v>45589.402833668981</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E299" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7666,16 +7668,16 @@
         <v>45589.405989606486</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D300" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E300" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="E300" s="6" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7683,16 +7685,16 @@
         <v>45589.412525949076</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C301" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E301" s="9" t="s">
         <v>483</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E301" s="9" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7700,16 +7702,16 @@
         <v>45589.415805150464</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7717,16 +7719,16 @@
         <v>45589.419429699075</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C303" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E303" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E303" s="9" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7734,16 +7736,16 @@
         <v>45589.420861041668</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D304" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E304" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7751,16 +7753,16 @@
         <v>45589.422192662038</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7768,16 +7770,16 @@
         <v>45589.423951354169</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D306" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E306" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7785,16 +7787,16 @@
         <v>45589.42630259259</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C307" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E307" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E307" s="9" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7802,16 +7804,16 @@
         <v>45589.427137685183</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7819,16 +7821,16 @@
         <v>45589.428661736107</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7836,16 +7838,16 @@
         <v>45589.430016134254</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7853,16 +7855,16 @@
         <v>45589.431020613425</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7870,16 +7872,16 @@
         <v>45589.432027546296</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7887,16 +7889,16 @@
         <v>45589.592862974532</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C313" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D313" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D313" s="8" t="s">
+      <c r="E313" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="E313" s="9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7904,16 +7906,16 @@
         <v>45589.593930324074</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7921,16 +7923,16 @@
         <v>45589.595829270838</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C315" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E315" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E315" s="9" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7938,16 +7940,16 @@
         <v>45589.59772424768</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7955,16 +7957,16 @@
         <v>45589.598211481483</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E317" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7972,16 +7974,16 @@
         <v>45589.600158078705</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7989,16 +7991,16 @@
         <v>45589.601160578706</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8006,16 +8008,16 @@
         <v>45589.611454421298</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D320" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E320" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8023,16 +8025,16 @@
         <v>45589.612082789346</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E321" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8040,16 +8042,16 @@
         <v>45589.613312488422</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8057,16 +8059,16 @@
         <v>45589.623510370366</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C323" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D323" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="D323" s="8" t="s">
+      <c r="E323" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="E323" s="9" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8074,16 +8076,16 @@
         <v>45589.624205381944</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8091,16 +8093,16 @@
         <v>45589.644534409723</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E325" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8108,16 +8110,16 @@
         <v>45589.65053219907</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C326" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E326" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8125,16 +8127,16 @@
         <v>45589.653290358794</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D327" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E327" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="E327" s="9" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8142,16 +8144,16 @@
         <v>45589.670785208335</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8159,16 +8161,16 @@
         <v>45589.673012349536</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C329" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D329" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="D329" s="8" t="s">
+      <c r="E329" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="E329" s="9" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8176,16 +8178,16 @@
         <v>45589.679591053238</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D330" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E330" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8193,16 +8195,16 @@
         <v>45589.682061064814</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D331" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E331" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8210,16 +8212,16 @@
         <v>45589.683688460645</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8227,16 +8229,16 @@
         <v>45589.687518541672</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8244,16 +8246,16 @@
         <v>45589.691726597222</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C334" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E334" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="D334" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E334" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8261,16 +8263,16 @@
         <v>45589.693021736108</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D335" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E335" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="E335" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8278,16 +8280,16 @@
         <v>45589.694058124995</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8295,16 +8297,16 @@
         <v>45589.694871354164</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8312,16 +8314,16 @@
         <v>45589.696472187497</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8329,16 +8331,16 @@
         <v>45589.697782175921</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8346,16 +8348,16 @@
         <v>45589.700806631939</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C340" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D340" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D340" s="5" t="s">
+      <c r="E340" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8363,16 +8365,16 @@
         <v>45589.70199775463</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E341" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8380,16 +8382,16 @@
         <v>45589.703959166669</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D342" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E342" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="E342" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8397,16 +8399,16 @@
         <v>45589.846655266199</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C343" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D343" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D343" s="8" t="s">
+      <c r="E343" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="E343" s="9" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8414,16 +8416,16 @@
         <v>45589.848150069447</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8431,16 +8433,16 @@
         <v>45589.853540995369</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D345" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E345" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="E345" s="9" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8448,16 +8450,16 @@
         <v>45589.853982361106</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8465,16 +8467,16 @@
         <v>45589.87788078704</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D347" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E347" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="E347" s="9" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8482,16 +8484,16 @@
         <v>45590.593092800926</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D348" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E348" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8499,16 +8501,16 @@
         <v>45590.602959641205</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C349" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D349" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="D349" s="8" t="s">
+      <c r="E349" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="E349" s="9" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8516,16 +8518,16 @@
         <v>45590.604498865738</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C350" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E350" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E350" s="6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8533,16 +8535,16 @@
         <v>45590.605085497686</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8550,16 +8552,16 @@
         <v>45590.607471620373</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D352" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E352" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8567,16 +8569,16 @@
         <v>45590.608900567131</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E353" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8584,16 +8586,16 @@
         <v>45590.611083460652</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D354" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E354" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="E354" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8601,16 +8603,16 @@
         <v>45590.61172512731</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8618,16 +8620,16 @@
         <v>45590.613075231478</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8635,16 +8637,16 @@
         <v>45590.615895497685</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C357" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E357" s="9" t="s">
         <v>571</v>
-      </c>
-      <c r="D357" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E357" s="9" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8652,16 +8654,16 @@
         <v>45590.623051273149</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D358" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E358" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8669,16 +8671,16 @@
         <v>45590.625082696759</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C359" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E359" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="D359" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E359" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8686,16 +8688,16 @@
         <v>45590.6256912963</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D360" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E360" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="E360" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8703,16 +8705,16 @@
         <v>45590.626860717588</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -8720,16 +8722,16 @@
         <v>45590.627571724537</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8737,16 +8739,16 @@
         <v>45590.628431967591</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E363" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -8754,16 +8756,16 @@
         <v>45590.631125520835</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C364" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D364" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D364" s="5" t="s">
+      <c r="E364" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8771,16 +8773,16 @@
         <v>45590.63746706018</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C365" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D365" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="D365" s="8" t="s">
+      <c r="E365" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="E365" s="9" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8788,16 +8790,16 @@
         <v>45590.639356666667</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D366" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E366" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="E366" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -8805,16 +8807,16 @@
         <v>45590.640429178238</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D367" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E367" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="E367" s="9" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -8822,16 +8824,16 @@
         <v>45590.641262893521</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -8839,16 +8841,16 @@
         <v>45590.642250555553</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E369" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -8856,16 +8858,16 @@
         <v>45590.642797534718</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D370" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E370" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="E370" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -8873,16 +8875,16 @@
         <v>45590.643433379628</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D371" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E371" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -8890,16 +8892,16 @@
         <v>45590.644798981477</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D372" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E372" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="E372" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -8907,16 +8909,16 @@
         <v>45590.645385983793</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -8924,16 +8926,16 @@
         <v>45590.646750023152</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C374" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D374" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D374" s="5" t="s">
-        <v>586</v>
-      </c>
       <c r="E374" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -8941,16 +8943,16 @@
         <v>45590.649940289353</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C375" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E375" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="D375" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E375" s="9" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -8958,16 +8960,16 @@
         <v>45590.651870196758</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D376" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E376" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="E376" s="6" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -8975,16 +8977,16 @@
         <v>45590.652887303237</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -8992,16 +8994,16 @@
         <v>45590.654513321759</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C378" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E378" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="D378" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E378" s="6" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9009,16 +9011,16 @@
         <v>45590.657354641204</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D379" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="E379" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="E379" s="9" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9026,16 +9028,16 @@
         <v>45590.662437569445</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D380" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E380" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="E380" s="6" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9043,16 +9045,16 @@
         <v>45590.663979363424</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9060,16 +9062,16 @@
         <v>45590.664987974538</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9077,16 +9079,16 @@
         <v>45590.680679097219</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E383" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9094,16 +9096,16 @@
         <v>45590.685639189818</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C384" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D384" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D384" s="5" t="s">
+      <c r="E384" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="E384" s="6" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9111,16 +9113,16 @@
         <v>45590.688770428242</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E385" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9128,16 +9130,16 @@
         <v>45590.690861076393</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D386" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E386" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="E386" s="6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9145,16 +9147,16 @@
         <v>45590.691287349538</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9162,16 +9164,16 @@
         <v>45590.696646145836</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C388" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D388" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="D388" s="5" t="s">
+      <c r="E388" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="E388" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9179,16 +9181,16 @@
         <v>45590.697884351852</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E389" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9196,16 +9198,16 @@
         <v>45590.699669548616</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D390" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E390" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="E390" s="6" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9213,16 +9215,16 @@
         <v>45590.700729247685</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9230,16 +9232,16 @@
         <v>45590.701127754626</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9247,32 +9249,49 @@
         <v>45594.607744085646</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E393" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="4">
+        <v>45594.609857094911</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E394" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="11">
-        <v>45594.609857094911</v>
-      </c>
-      <c r="B394" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C394" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D394" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="E394" s="13" t="s">
+    <row r="395" spans="1:5">
+      <c r="A395" s="11">
+        <v>45607.487659768522</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D395" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E395" s="13" t="s">
         <v>631</v>
       </c>
     </row>

--- a/Algorithm.xlsx
+++ b/Algorithm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A9624725B4024240097A6A3430472DE741493F89" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D136B51D-39AB-4371-8879-A4CEACBD298F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B63A1A-C621-4E9E-B6A2-12187B1BCE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="648">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2014,6 +2014,54 @@
   <si>
     <t>In the next paragraph, we show that the total number card(V (R2)) of received votes by R2, i.e., in the region candidate to support an inner arc E2, must satisfy, for some
 threshold  &gt; 0,</t>
+  </si>
+  <si>
+    <t>\cite{li2017aircode}</t>
+  </si>
+  <si>
+    <t>Reed-Solomon coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In practice, we use an error-correction scheme (such as the Reed-Solomon coding) [25] to add redundancy in the provided bit string to further improve the robustness of the
+decoding step. </t>
+  </si>
+  <si>
+    <t>Therefore, we adopt the ellipse detector [30] to detect ellipses on the image</t>
+  </si>
+  <si>
+    <t>The detected ellipses are then filtered based on a threshold of the ratio between the major and minor axis lengths (in practice we set the threshold as 1.8).</t>
+  </si>
+  <si>
+    <t>But if four centers are indeed the markers, then there must exist a single perspective
+transformation (the inverse of the camera projection) which restores the four centers into square corners.</t>
+  </si>
+  <si>
+    <t>We transform this observation into a RANSAC-style (random sample consensus) algorithm [12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can estimate the object pose (including the rotation and translation) with respect to the
+camera by solving the classic perspective-4-point-problem in computer vision [36]. </t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we train the classifier on the fly. In particular, we use a support vector machine (SVM) because it is lightweight and easy to implement. </t>
+  </si>
+  <si>
+    <t>\cite{willis2013infrastructs}</t>
+  </si>
+  <si>
+    <t>Low-pass filtering, High Pass filtering, Deconvolution</t>
+  </si>
+  <si>
+    <t>Other common techniques include high/low pass filters and deconvolution using a reference and noise signal.</t>
+  </si>
+  <si>
+    <t>Thresholding -&gt;Simples, Connected Component</t>
+  </si>
+  <si>
+    <t>Image thresholding and connected components analysis was performed on the resulting images, with each connected component determined to be a void.</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -2026,7 +2074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2043,14 +2091,6 @@
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2215,10 +2255,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2227,13 +2267,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2242,13 +2282,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2259,7 +2299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2298,9 +2338,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2352,7 +2389,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:E395">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:E404">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Carimbo de data/hora"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coder"/>
@@ -2565,11 +2602,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E395"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2594,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2610,7 +2647,7 @@
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9279,20 +9316,173 @@
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="11">
+      <c r="A395" s="7">
         <v>45607.487659768522</v>
       </c>
-      <c r="B395" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C395" s="12" t="s">
+      <c r="B395" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D395" s="12" t="s">
+      <c r="D395" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E395" s="13" t="s">
+      <c r="E395" s="9" t="s">
         <v>631</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="4">
+        <v>45904.43728731481</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E396" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="7">
+        <v>45904.438247210652</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="4">
+        <v>45904.439136307876</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E398" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="7">
+        <v>45904.441545891204</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="4">
+        <v>45904.442275289352</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E400" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="7">
+        <v>45904.444118946762</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E401" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="4">
+        <v>45904.445610289353</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E402" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="7">
+        <v>45904.464983425925</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="E403" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="11">
+        <v>45904.466405613421</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E404" s="13" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
